--- a/biology/Zoologie/Dalyelliidae/Dalyelliidae.xlsx
+++ b/biology/Zoologie/Dalyelliidae/Dalyelliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dalyelliidae sont une famille de vers plats aquatiques de l'ordre des Rhabdocoela (infra-ordre des Neotyphloplanida et sous-ordre des Dalytyphloplanida). Des Dalyelliidae adultes sont endoparasites[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dalyelliidae sont une famille de vers plats aquatiques de l'ordre des Rhabdocoela (infra-ordre des Neotyphloplanida et sous-ordre des Dalytyphloplanida). Des Dalyelliidae adultes sont endoparasites.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,12 +551,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dalyelliidae Graff, 1905[2].
-Dalyelliidae a pour synonyme Mesovorticidae An der Lan, 1939[2].
-Liste des genres
-Selon la base de données World Register of Marine Species                               (2 janvier 2024)[2], la famille des Dalyelliidae regroupe les genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dalyelliidae Graff, 1905.
+Dalyelliidae a pour synonyme Mesovorticidae An der Lan, 1939.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dalyelliidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dalyelliidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (2 janvier 2024), la famille des Dalyelliidae regroupe les genres suivants :
 Austrodalyellia Hochberg &amp; Cannon, 2002
 Castrella Fuhrmann, 1900
 Dalyellia Fleming, 1822
@@ -554,9 +605,43 @@
 Pseudodalyellia Van Steenkiste, Gobert, Davison, Kolasa &amp; Artois, 2011
 Sergia Nasonov, 1923
 Vaillantiella Luther, 1955
-Varsoviella Gieysztor &amp; Wiszniewski, 1947
-Synonymes, reclassements, suppressions
-D'après World Register of Marine Species                               (2 janvier 2024)[2] :
+Varsoviella Gieysztor &amp; Wiszniewski, 1947</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dalyelliidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dalyelliidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements, suppressions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (2 janvier 2024) :
 le genre Debeauchampiola est accepté comme Beauchampiola Luther, 1957, classé dans la famille des Jenseniidae. C'est une erreur d'orthographe du nom par Faubel &amp; Noreña en 2001,
 le genre Hypostomum Schmidt, 1848 est un nomen oblitum accepté comme Dalyellia Fleming, 1822,
 le genre Mesovortex An der Lan, 1939 est accepté comme Gieysztoria Ruebush &amp; Hayes, 1939,
